--- a/supplimentary_docs/MH_COA_CRII21.xlsx
+++ b/supplimentary_docs/MH_COA_CRII21.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10808"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF2475B-9CB2-DE4A-8ACB-678D071B99A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D108AE87-A364-A54A-9B1B-D46C7A3DCBE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="24260" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7000" yWindow="3100" windowWidth="30660" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NSF COA Template" sheetId="1" r:id="rId1"/>
@@ -462,16 +462,16 @@
     <t>Bloom, Gedare</t>
   </si>
   <si>
+    <t>Collaborator</t>
+  </si>
+  <si>
     <t>Salinas, Sergio</t>
   </si>
   <si>
+    <t>Univsesity of Waterloo</t>
+  </si>
+  <si>
     <t>Pellizzoni, Rodolfo</t>
-  </si>
-  <si>
-    <t>University of Waterloo</t>
-  </si>
-  <si>
-    <t>Business</t>
   </si>
 </sst>
 </file>
@@ -2357,8 +2357,8 @@
   </sheetPr>
   <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="138" zoomScaleNormal="138" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A38" zoomScale="138" zoomScaleNormal="138" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -2624,7 +2624,7 @@
         <v>47</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D28" s="15"/>
       <c r="E28" s="16"/>
@@ -2634,10 +2634,10 @@
         <v>4</v>
       </c>
       <c r="B29" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="18" t="s">
         <v>48</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>51</v>
       </c>
       <c r="D29" s="15"/>
       <c r="E29" s="16"/>
@@ -2650,7 +2650,7 @@
         <v>46</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D30" s="31"/>
       <c r="E30" s="32"/>
@@ -2826,7 +2826,7 @@
         <v>5</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C52" s="15" t="s">
         <v>50</v>
